--- a/SANTA_ROSA.xlsx
+++ b/SANTA_ROSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE507FD0-2AEA-4CA6-86F7-2E6EFB708FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0125927B-65F0-4D23-84AB-9B85DD95CAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,7 +1235,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{BD065D67-0862-4690-81C9-7F76322A7157}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4EF2C3F0-618B-4535-9637-74618CADF5AE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1265,10 +1265,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE91F7BF-BEA0-4D62-BA59-20DC196DB83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756F25BA-A610-447E-928B-3053FA6715F9}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD1D6EE-0007-4372-8472-5B71497BAF56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76D73AB-F057-4CA5-A482-14190189109E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1369,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CC417C-DE8D-4B12-8F55-F122C554323D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6031FE-CBD9-4A11-AFE6-352517E3DEBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1388,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6AC8F6-D391-A694-59CF-3E088EAFD36C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD47713A-BC5D-071E-BA8D-F0C59D64FD18}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5A088D-C29A-7B3F-FB0C-C5B4BE5D7BD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074674C9-1AD1-ABEC-9CEB-32DDAF99F00C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1456,7 +1456,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46361D0-86F1-6F50-6580-EC73C648364E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7FB23F-B685-EDD5-4276-05E46A125A0A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD07872-B7C9-F898-9203-52A039D7FA62}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C175FCE-064A-981E-8088-E822C21F478A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1518,7 +1518,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43274D48-5058-CA1C-90FB-AE1066FD5C03}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFCDEE4-B9B2-594A-0D56-B3D2A107E5CD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1561,7 +1561,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57982158-E769-42BA-8113-74C4DE8F12D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1E7081-85D3-4AF9-AC74-DAD840BA4E8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1599,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3C755E-0C34-425C-8AEA-8FC7242A4968}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A353170D-AEEB-4ED7-9548-0BF75EA688C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1642,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD3FCD3-4947-49F4-8823-FA020551D4CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769D9C34-F485-4C1A-A524-4FF5AEF6CC96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52729E45-CFDD-490F-87B1-E4D8EA9B71F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D36A0FF-4C44-4EDD-A622-6CA6AFA5E9AB}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANTA_ROSA.xlsx
+++ b/SANTA_ROSA.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0125927B-65F0-4D23-84AB-9B85DD95CAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C94D5D-E06A-4C0F-A9CB-4038949EE7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="307">
   <si>
     <t>COMARCA</t>
   </si>
@@ -947,15 +946,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SANTA ROSA</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,27 +1205,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4EF2C3F0-618B-4535-9637-74618CADF5AE}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D3B5325F-0FC6-45EA-93DA-8D3067C03E2B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1265,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756F25BA-A610-447E-928B-3053FA6715F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7318424F-3431-4EAE-BBE6-CF5DB546AD69}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76D73AB-F057-4CA5-A482-14190189109E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F7EB6D-003A-4521-A40F-CC442D5CF4C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6031FE-CBD9-4A11-AFE6-352517E3DEBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683CEE7D-21FB-4C06-BD55-AE98647E9A66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD47713A-BC5D-071E-BA8D-F0C59D64FD18}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A08968B-8F41-4695-5683-420AAB3695F1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1437,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074674C9-1AD1-ABEC-9CEB-32DDAF99F00C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17CE286-9E5B-1B69-8206-B0EF8CCD5D73}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1456,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7FB23F-B685-EDD5-4276-05E46A125A0A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C17E89-777A-5C48-9836-875DA2E6C23A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1487,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C175FCE-064A-981E-8088-E822C21F478A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB7C581-A516-A86B-04EC-ABE5E340BEA1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1518,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFCDEE4-B9B2-594A-0D56-B3D2A107E5CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE26684-70AD-BBA9-8231-DA3C229069C4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1561,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1E7081-85D3-4AF9-AC74-DAD840BA4E8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9798790F-5ECE-4755-AFE4-0BF75F24B852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A353170D-AEEB-4ED7-9548-0BF75EA688C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FF5121-DA21-4184-8B41-834881E8EE6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1617,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769D9C34-F485-4C1A-A524-4FF5AEF6CC96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC33A544-5450-413F-84C6-6711BE3F3F4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D36A0FF-4C44-4EDD-A622-6CA6AFA5E9AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB435DEB-28C4-447C-80D0-4151F8D0E97B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1967,98 +1942,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="30"/>
+    <col min="6" max="6" width="2" style="30" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5624,52 +5599,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="E1" s="30">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="33">
-        <v>145</v>
-      </c>
-      <c r="C2" s="31">
-        <v>9.5886787461975931E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SANTA_ROSA.xlsx
+++ b/SANTA_ROSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C94D5D-E06A-4C0F-A9CB-4038949EE7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD1D5C54-F55E-4E26-87BA-B1F552F1FCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D3B5325F-0FC6-45EA-93DA-8D3067C03E2B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{BDB754DE-A723-49B3-9DC9-B5053581114C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7318424F-3431-4EAE-BBE6-CF5DB546AD69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E36908-7984-4F23-B68E-B62BD4F550EA}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F7EB6D-003A-4521-A40F-CC442D5CF4C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99EE15A5-9CDA-491C-BE65-B90131BE39CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683CEE7D-21FB-4C06-BD55-AE98647E9A66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3446D02-E31C-4816-8830-F9050F8E0005}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A08968B-8F41-4695-5683-420AAB3695F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E2D3CF8-093B-8295-E144-BDC191371AA4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17CE286-9E5B-1B69-8206-B0EF8CCD5D73}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7820B20D-23F1-0A1F-0934-61A0D87F08DE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C17E89-777A-5C48-9836-875DA2E6C23A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C196F3E9-2D73-2EE1-A2C1-E81D85D54EAA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB7C581-A516-A86B-04EC-ABE5E340BEA1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD5865F-FF5E-A94E-CB1E-EAD240D6F039}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE26684-70AD-BBA9-8231-DA3C229069C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B6DE07-C7C6-F52B-5CC6-7FCF2B789BC1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9798790F-5ECE-4755-AFE4-0BF75F24B852}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACCF3BA3-82DD-4F54-929D-F62A95C0A4B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FF5121-DA21-4184-8B41-834881E8EE6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410733F7-A1D7-4F2A-B390-E502EE264A90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,50 +1599,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC33A544-5450-413F-84C6-6711BE3F3F4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1930,7 +1886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB435DEB-28C4-447C-80D0-4151F8D0E97B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A6C06D-A4B9-4144-9A10-76A2F0ABAED9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
